--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Pdgfrb</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.4108750991181</v>
+        <v>49.195614</v>
       </c>
       <c r="H2">
-        <v>48.4108750991181</v>
+        <v>147.586842</v>
       </c>
       <c r="I2">
-        <v>0.9085127098602098</v>
+        <v>0.8724243622956617</v>
       </c>
       <c r="J2">
-        <v>0.9085127098602098</v>
+        <v>0.8724243622956616</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.65495039995025</v>
+        <v>5.105980333333334</v>
       </c>
       <c r="N2">
-        <v>3.65495039995025</v>
+        <v>15.317941</v>
       </c>
       <c r="O2">
-        <v>0.03314322949012163</v>
+        <v>0.04494800244635684</v>
       </c>
       <c r="P2">
-        <v>0.03314322949012163</v>
+        <v>0.04494800244635684</v>
       </c>
       <c r="Q2">
-        <v>176.9393473054633</v>
+        <v>251.191837570258</v>
       </c>
       <c r="R2">
-        <v>176.9393473054633</v>
+        <v>2260.726538132322</v>
       </c>
       <c r="S2">
-        <v>0.03011104523758923</v>
+        <v>0.03921373237072671</v>
       </c>
       <c r="T2">
-        <v>0.03011104523758923</v>
+        <v>0.0392137323707267</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.4108750991181</v>
+        <v>49.195614</v>
       </c>
       <c r="H3">
-        <v>48.4108750991181</v>
+        <v>147.586842</v>
       </c>
       <c r="I3">
-        <v>0.9085127098602098</v>
+        <v>0.8724243622956617</v>
       </c>
       <c r="J3">
-        <v>0.9085127098602098</v>
+        <v>0.8724243622956616</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>92.7096835271813</v>
+        <v>92.82552866666667</v>
       </c>
       <c r="N3">
-        <v>92.7096835271813</v>
+        <v>278.476586</v>
       </c>
       <c r="O3">
-        <v>0.8406949427110538</v>
+        <v>0.8171441754985934</v>
       </c>
       <c r="P3">
-        <v>0.8406949427110538</v>
+        <v>0.8171441754985934</v>
       </c>
       <c r="Q3">
-        <v>4488.156909713141</v>
+        <v>4566.608877631268</v>
       </c>
       <c r="R3">
-        <v>4488.156909713141</v>
+        <v>41099.47989868141</v>
       </c>
       <c r="S3">
-        <v>0.7637820405681933</v>
+        <v>0.7128964862129746</v>
       </c>
       <c r="T3">
-        <v>0.7637820405681933</v>
+        <v>0.7128964862129745</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.4108750991181</v>
+        <v>49.195614</v>
       </c>
       <c r="H4">
-        <v>48.4108750991181</v>
+        <v>147.586842</v>
       </c>
       <c r="I4">
-        <v>0.9085127098602098</v>
+        <v>0.8724243622956617</v>
       </c>
       <c r="J4">
-        <v>0.9085127098602098</v>
+        <v>0.8724243622956616</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>13.9128030088077</v>
+        <v>0.04351533333333333</v>
       </c>
       <c r="N4">
-        <v>13.9128030088077</v>
+        <v>0.130546</v>
       </c>
       <c r="O4">
-        <v>0.1261618277988245</v>
+        <v>0.0003830659699865731</v>
       </c>
       <c r="P4">
-        <v>0.1261618277988245</v>
+        <v>0.0003830659699865732</v>
       </c>
       <c r="Q4">
-        <v>673.5309687380241</v>
+        <v>2.140763541748</v>
       </c>
       <c r="R4">
-        <v>673.5309687380241</v>
+        <v>19.266871875732</v>
       </c>
       <c r="S4">
-        <v>0.1146196240544272</v>
+        <v>0.0003341960845827051</v>
       </c>
       <c r="T4">
-        <v>0.1146196240544272</v>
+        <v>0.0003341960845827052</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.85613439842071</v>
+        <v>49.195614</v>
       </c>
       <c r="H5">
-        <v>1.85613439842071</v>
+        <v>147.586842</v>
       </c>
       <c r="I5">
-        <v>0.03483353045614887</v>
+        <v>0.8724243622956617</v>
       </c>
       <c r="J5">
-        <v>0.03483353045614887</v>
+        <v>0.8724243622956616</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.65495039995025</v>
+        <v>15.62246733333333</v>
       </c>
       <c r="N5">
-        <v>3.65495039995025</v>
+        <v>46.867402</v>
       </c>
       <c r="O5">
-        <v>0.03314322949012163</v>
+        <v>0.1375247560850632</v>
       </c>
       <c r="P5">
-        <v>0.03314322949012163</v>
+        <v>0.1375247560850632</v>
       </c>
       <c r="Q5">
-        <v>6.784079161869191</v>
+        <v>768.556872658276</v>
       </c>
       <c r="R5">
-        <v>6.784079161869191</v>
+        <v>6917.011853924483</v>
       </c>
       <c r="S5">
-        <v>0.001154495693859283</v>
+        <v>0.1199799476273777</v>
       </c>
       <c r="T5">
-        <v>0.001154495693859283</v>
+        <v>0.1199799476273777</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.85613439842071</v>
+        <v>0.05229733333333333</v>
       </c>
       <c r="H6">
-        <v>1.85613439842071</v>
+        <v>0.156892</v>
       </c>
       <c r="I6">
-        <v>0.03483353045614887</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="J6">
-        <v>0.03483353045614887</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>92.7096835271813</v>
+        <v>5.105980333333334</v>
       </c>
       <c r="N6">
-        <v>92.7096835271813</v>
+        <v>15.317941</v>
       </c>
       <c r="O6">
-        <v>0.8406949427110538</v>
+        <v>0.04494800244635684</v>
       </c>
       <c r="P6">
-        <v>0.8406949427110538</v>
+        <v>0.04494800244635684</v>
       </c>
       <c r="Q6">
-        <v>172.0816326614991</v>
+        <v>0.2670291554857778</v>
       </c>
       <c r="R6">
-        <v>172.0816326614991</v>
+        <v>2.403262399372</v>
       </c>
       <c r="S6">
-        <v>0.02928437289125582</v>
+        <v>4.168610707930219E-05</v>
       </c>
       <c r="T6">
-        <v>0.02928437289125582</v>
+        <v>4.168610707930219E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.85613439842071</v>
+        <v>0.05229733333333333</v>
       </c>
       <c r="H7">
-        <v>1.85613439842071</v>
+        <v>0.156892</v>
       </c>
       <c r="I7">
-        <v>0.03483353045614887</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="J7">
-        <v>0.03483353045614887</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.9128030088077</v>
+        <v>92.82552866666667</v>
       </c>
       <c r="N7">
-        <v>13.9128030088077</v>
+        <v>278.476586</v>
       </c>
       <c r="O7">
-        <v>0.1261618277988245</v>
+        <v>0.8171441754985934</v>
       </c>
       <c r="P7">
-        <v>0.1261618277988245</v>
+        <v>0.8171441754985934</v>
       </c>
       <c r="Q7">
-        <v>25.82403224309912</v>
+        <v>4.854527614523556</v>
       </c>
       <c r="R7">
-        <v>25.82403224309912</v>
+        <v>43.690748530712</v>
       </c>
       <c r="S7">
-        <v>0.004394661871033764</v>
+        <v>0.0007578436803663432</v>
       </c>
       <c r="T7">
-        <v>0.004394661871033764</v>
+        <v>0.0007578436803663432</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.2275454016719</v>
+        <v>0.05229733333333333</v>
       </c>
       <c r="H8">
-        <v>1.2275454016719</v>
+        <v>0.156892</v>
       </c>
       <c r="I8">
-        <v>0.02303698491436057</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="J8">
-        <v>0.02303698491436057</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.65495039995025</v>
+        <v>0.04351533333333333</v>
       </c>
       <c r="N8">
-        <v>3.65495039995025</v>
+        <v>0.130546</v>
       </c>
       <c r="O8">
-        <v>0.03314322949012163</v>
+        <v>0.0003830659699865731</v>
       </c>
       <c r="P8">
-        <v>0.03314322949012163</v>
+        <v>0.0003830659699865732</v>
       </c>
       <c r="Q8">
-        <v>4.486617556797801</v>
+        <v>0.002275735892444444</v>
       </c>
       <c r="R8">
-        <v>4.486617556797801</v>
+        <v>0.020481623032</v>
       </c>
       <c r="S8">
-        <v>0.0007635200777771226</v>
+        <v>3.55266712071458E-07</v>
       </c>
       <c r="T8">
-        <v>0.0007635200777771226</v>
+        <v>3.552667120714581E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.2275454016719</v>
+        <v>0.05229733333333333</v>
       </c>
       <c r="H9">
-        <v>1.2275454016719</v>
+        <v>0.156892</v>
       </c>
       <c r="I9">
-        <v>0.02303698491436057</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="J9">
-        <v>0.02303698491436057</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>92.7096835271813</v>
+        <v>15.62246733333333</v>
       </c>
       <c r="N9">
-        <v>92.7096835271813</v>
+        <v>46.867402</v>
       </c>
       <c r="O9">
-        <v>0.8406949427110538</v>
+        <v>0.1375247560850632</v>
       </c>
       <c r="P9">
-        <v>0.8406949427110538</v>
+        <v>0.1375247560850632</v>
       </c>
       <c r="Q9">
-        <v>113.8053457042485</v>
+        <v>0.8170133816204445</v>
       </c>
       <c r="R9">
-        <v>113.8053457042485</v>
+        <v>7.353120434584</v>
       </c>
       <c r="S9">
-        <v>0.01936707671281377</v>
+        <v>0.000127544526924389</v>
       </c>
       <c r="T9">
-        <v>0.01936707671281377</v>
+        <v>0.000127544526924389</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,247 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.2275454016719</v>
+        <v>1.896931</v>
       </c>
       <c r="H10">
-        <v>1.2275454016719</v>
+        <v>5.690793</v>
       </c>
       <c r="I10">
-        <v>0.02303698491436057</v>
+        <v>0.03363976345521111</v>
       </c>
       <c r="J10">
-        <v>0.02303698491436057</v>
+        <v>0.0336397634552111</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.9128030088077</v>
+        <v>5.105980333333334</v>
       </c>
       <c r="N10">
-        <v>13.9128030088077</v>
+        <v>15.317941</v>
       </c>
       <c r="O10">
-        <v>0.1261618277988245</v>
+        <v>0.04494800244635684</v>
       </c>
       <c r="P10">
-        <v>0.1261618277988245</v>
+        <v>0.04494800244635684</v>
       </c>
       <c r="Q10">
-        <v>17.07859735782887</v>
+        <v>9.685692379690336</v>
       </c>
       <c r="R10">
-        <v>17.07859735782887</v>
+        <v>87.17123141721301</v>
       </c>
       <c r="S10">
-        <v>0.002906388123769677</v>
+        <v>0.001512040170079694</v>
       </c>
       <c r="T10">
-        <v>0.002906388123769677</v>
+        <v>0.001512040170079694</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.79129853322718</v>
+        <v>1.896931</v>
       </c>
       <c r="H11">
-        <v>1.79129853322718</v>
+        <v>5.690793</v>
       </c>
       <c r="I11">
-        <v>0.03361677476928094</v>
+        <v>0.03363976345521111</v>
       </c>
       <c r="J11">
-        <v>0.03361677476928094</v>
+        <v>0.0336397634552111</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.65495039995025</v>
+        <v>92.82552866666667</v>
       </c>
       <c r="N11">
-        <v>3.65495039995025</v>
+        <v>278.476586</v>
       </c>
       <c r="O11">
-        <v>0.03314322949012163</v>
+        <v>0.8171441754985934</v>
       </c>
       <c r="P11">
-        <v>0.03314322949012163</v>
+        <v>0.8171441754985934</v>
       </c>
       <c r="Q11">
-        <v>6.547107290448978</v>
+        <v>176.0836229191887</v>
       </c>
       <c r="R11">
-        <v>6.547107290448978</v>
+        <v>1584.752606272698</v>
       </c>
       <c r="S11">
-        <v>0.001114168480896009</v>
+        <v>0.02748853677257619</v>
       </c>
       <c r="T11">
-        <v>0.001114168480896009</v>
+        <v>0.02748853677257619</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.79129853322718</v>
+        <v>1.896931</v>
       </c>
       <c r="H12">
-        <v>1.79129853322718</v>
+        <v>5.690793</v>
       </c>
       <c r="I12">
-        <v>0.03361677476928094</v>
+        <v>0.03363976345521111</v>
       </c>
       <c r="J12">
-        <v>0.03361677476928094</v>
+        <v>0.0336397634552111</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>92.7096835271813</v>
+        <v>0.04351533333333333</v>
       </c>
       <c r="N12">
-        <v>92.7096835271813</v>
+        <v>0.130546</v>
       </c>
       <c r="O12">
-        <v>0.8406949427110538</v>
+        <v>0.0003830659699865731</v>
       </c>
       <c r="P12">
-        <v>0.8406949427110538</v>
+        <v>0.0003830659699865732</v>
       </c>
       <c r="Q12">
-        <v>166.0707201181959</v>
+        <v>0.08254558477533333</v>
       </c>
       <c r="R12">
-        <v>166.0707201181959</v>
+        <v>0.742910262978</v>
       </c>
       <c r="S12">
-        <v>0.02826145253879104</v>
+        <v>1.288624861808932E-05</v>
       </c>
       <c r="T12">
-        <v>0.02826145253879104</v>
+        <v>1.288624861808932E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.896931</v>
+      </c>
+      <c r="H13">
+        <v>5.690793</v>
+      </c>
+      <c r="I13">
+        <v>0.03363976345521111</v>
+      </c>
+      <c r="J13">
+        <v>0.0336397634552111</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>15.62246733333333</v>
+      </c>
+      <c r="N13">
+        <v>46.867402</v>
+      </c>
+      <c r="O13">
+        <v>0.1375247560850632</v>
+      </c>
+      <c r="P13">
+        <v>0.1375247560850632</v>
+      </c>
+      <c r="Q13">
+        <v>29.63474258108733</v>
+      </c>
+      <c r="R13">
+        <v>266.712683229786</v>
+      </c>
+      <c r="S13">
+        <v>0.004626300263937131</v>
+      </c>
+      <c r="T13">
+        <v>0.00462630026393713</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.047190333333333</v>
+      </c>
+      <c r="H14">
+        <v>9.141570999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.05403821331210212</v>
+      </c>
+      <c r="J14">
+        <v>0.05403821331210212</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.105980333333334</v>
+      </c>
+      <c r="N14">
+        <v>15.317941</v>
+      </c>
+      <c r="O14">
+        <v>0.04494800244635684</v>
+      </c>
+      <c r="P14">
+        <v>0.04494800244635684</v>
+      </c>
+      <c r="Q14">
+        <v>15.55889391392344</v>
+      </c>
+      <c r="R14">
+        <v>140.030045225311</v>
+      </c>
+      <c r="S14">
+        <v>0.002428909744149119</v>
+      </c>
+      <c r="T14">
+        <v>0.002428909744149119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.047190333333333</v>
+      </c>
+      <c r="H15">
+        <v>9.141570999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.05403821331210212</v>
+      </c>
+      <c r="J15">
+        <v>0.05403821331210212</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>92.82552866666667</v>
+      </c>
+      <c r="N15">
+        <v>278.476586</v>
+      </c>
+      <c r="O15">
+        <v>0.8171441754985934</v>
+      </c>
+      <c r="P15">
+        <v>0.8171441754985934</v>
+      </c>
+      <c r="Q15">
+        <v>282.8570536396228</v>
+      </c>
+      <c r="R15">
+        <v>2545.713482756606</v>
+      </c>
+      <c r="S15">
+        <v>0.0441570112623348</v>
+      </c>
+      <c r="T15">
+        <v>0.0441570112623348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.047190333333333</v>
+      </c>
+      <c r="H16">
+        <v>9.141570999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.05403821331210212</v>
+      </c>
+      <c r="J16">
+        <v>0.05403821331210212</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.04351533333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.130546</v>
+      </c>
+      <c r="O16">
+        <v>0.0003830659699865731</v>
+      </c>
+      <c r="P16">
+        <v>0.0003830659699865732</v>
+      </c>
+      <c r="Q16">
+        <v>0.1325995030851111</v>
+      </c>
+      <c r="R16">
+        <v>1.193395527766</v>
+      </c>
+      <c r="S16">
+        <v>2.070020059874175E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.070020059874175E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.79129853322718</v>
-      </c>
-      <c r="H13">
-        <v>1.79129853322718</v>
-      </c>
-      <c r="I13">
-        <v>0.03361677476928094</v>
-      </c>
-      <c r="J13">
-        <v>0.03361677476928094</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>13.9128030088077</v>
-      </c>
-      <c r="N13">
-        <v>13.9128030088077</v>
-      </c>
-      <c r="O13">
-        <v>0.1261618277988245</v>
-      </c>
-      <c r="P13">
-        <v>0.1261618277988245</v>
-      </c>
-      <c r="Q13">
-        <v>24.92198362275593</v>
-      </c>
-      <c r="R13">
-        <v>24.92198362275593</v>
-      </c>
-      <c r="S13">
-        <v>0.004241153749593891</v>
-      </c>
-      <c r="T13">
-        <v>0.004241153749593891</v>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.047190333333333</v>
+      </c>
+      <c r="H17">
+        <v>9.141570999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.05403821331210212</v>
+      </c>
+      <c r="J17">
+        <v>0.05403821331210212</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>15.62246733333333</v>
+      </c>
+      <c r="N17">
+        <v>46.867402</v>
+      </c>
+      <c r="O17">
+        <v>0.1375247560850632</v>
+      </c>
+      <c r="P17">
+        <v>0.1375247560850632</v>
+      </c>
+      <c r="Q17">
+        <v>47.60463144094911</v>
+      </c>
+      <c r="R17">
+        <v>428.441682968542</v>
+      </c>
+      <c r="S17">
+        <v>0.00743159210501946</v>
+      </c>
+      <c r="T17">
+        <v>0.00743159210501946</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.197513666666667</v>
+      </c>
+      <c r="H18">
+        <v>6.592541</v>
+      </c>
+      <c r="I18">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="J18">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5.105980333333334</v>
+      </c>
+      <c r="N18">
+        <v>15.317941</v>
+      </c>
+      <c r="O18">
+        <v>0.04494800244635684</v>
+      </c>
+      <c r="P18">
+        <v>0.04494800244635684</v>
+      </c>
+      <c r="Q18">
+        <v>11.22046156423122</v>
+      </c>
+      <c r="R18">
+        <v>100.984154078081</v>
+      </c>
+      <c r="S18">
+        <v>0.001751634054322017</v>
+      </c>
+      <c r="T18">
+        <v>0.001751634054322017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.197513666666667</v>
+      </c>
+      <c r="H19">
+        <v>6.592541</v>
+      </c>
+      <c r="I19">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="J19">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>92.82552866666667</v>
+      </c>
+      <c r="N19">
+        <v>278.476586</v>
+      </c>
+      <c r="O19">
+        <v>0.8171441754985934</v>
+      </c>
+      <c r="P19">
+        <v>0.8171441754985934</v>
+      </c>
+      <c r="Q19">
+        <v>203.9853678605585</v>
+      </c>
+      <c r="R19">
+        <v>1835.868310745026</v>
+      </c>
+      <c r="S19">
+        <v>0.03184429757034146</v>
+      </c>
+      <c r="T19">
+        <v>0.03184429757034146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.197513666666667</v>
+      </c>
+      <c r="H20">
+        <v>6.592541</v>
+      </c>
+      <c r="I20">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="J20">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.04351533333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.130546</v>
+      </c>
+      <c r="O20">
+        <v>0.0003830659699865731</v>
+      </c>
+      <c r="P20">
+        <v>0.0003830659699865732</v>
+      </c>
+      <c r="Q20">
+        <v>0.09562553970955555</v>
+      </c>
+      <c r="R20">
+        <v>0.860629857386</v>
+      </c>
+      <c r="S20">
+        <v>1.492816947496547E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.492816947496547E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.197513666666667</v>
+      </c>
+      <c r="H21">
+        <v>6.592541</v>
+      </c>
+      <c r="I21">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="J21">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>15.62246733333333</v>
+      </c>
+      <c r="N21">
+        <v>46.867402</v>
+      </c>
+      <c r="O21">
+        <v>0.1375247560850632</v>
+      </c>
+      <c r="P21">
+        <v>0.1375247560850632</v>
+      </c>
+      <c r="Q21">
+        <v>34.33058547205356</v>
+      </c>
+      <c r="R21">
+        <v>308.975269248482</v>
+      </c>
+      <c r="S21">
+        <v>0.005359371561804541</v>
+      </c>
+      <c r="T21">
+        <v>0.005359371561804541</v>
       </c>
     </row>
   </sheetData>
